--- a/changes.xlsx
+++ b/changes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00113294\Documents\WIP\tibs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5142E518-E2CF-4A49-9A05-1E1472956D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F3CF9E-BA6F-4FF4-B6A5-E452D22637C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{28ABBFF5-56A0-4383-A735-B2BF5F1EF509}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="132">
   <si>
     <t>G227_PA.sav</t>
   </si>
@@ -403,6 +403,39 @@
   </si>
   <si>
     <t>in progress</t>
+  </si>
+  <si>
+    <t>G228_PIER</t>
+  </si>
+  <si>
+    <t>G0G1_PIER</t>
+  </si>
+  <si>
+    <t>G228_PIERL</t>
+  </si>
+  <si>
+    <t>G227_PIERL</t>
+  </si>
+  <si>
+    <t>G0G1_PIERL</t>
+  </si>
+  <si>
+    <t>G228_PIERR</t>
+  </si>
+  <si>
+    <t>G227_PIERR</t>
+  </si>
+  <si>
+    <t>G0G1_PIERR</t>
+  </si>
+  <si>
+    <t>Any nipple piercings</t>
+  </si>
+  <si>
+    <t>Any nipple piercings - Left breast</t>
+  </si>
+  <si>
+    <t>Any nipple piercings - Right breast</t>
   </si>
 </sst>
 </file>
@@ -787,10 +820,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DB1204FF-C1A3-4385-ACAD-4604C89ECD9B}" name="Table13" displayName="Table13" ref="A1:I70" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" tableBorderDxfId="9">
-  <autoFilter ref="A1:I70" xr:uid="{124AA4B1-71CB-4865-8E96-3D9074666184}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I70">
-    <sortCondition ref="A1:A70"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DB1204FF-C1A3-4385-ACAD-4604C89ECD9B}" name="Table13" displayName="Table13" ref="A1:I78" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" tableBorderDxfId="9">
+  <autoFilter ref="A1:I78" xr:uid="{124AA4B1-71CB-4865-8E96-3D9074666184}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I78">
+    <sortCondition ref="A1:A78"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{BEB6F788-C439-48EE-AC38-DDEE29C457D1}" name="file" dataDxfId="8"/>
@@ -1104,13 +1137,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{826ABEE4-9A06-47D2-AFC0-47EEC729BFE2}">
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C10:C11"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1785,20 +1818,20 @@
     </row>
     <row r="32" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="5" t="s">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="G32" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="G32" s="5"/>
       <c r="H32" s="10"/>
       <c r="I32" s="10" t="s">
         <v>120</v>
@@ -1806,20 +1839,20 @@
     </row>
     <row r="33" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="5" t="s">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="G33" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="G33" s="5"/>
       <c r="H33" s="10"/>
       <c r="I33" s="10" t="s">
         <v>120</v>
@@ -1827,20 +1860,20 @@
     </row>
     <row r="34" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="5" t="s">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="G34" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="G34" s="5"/>
       <c r="H34" s="10"/>
       <c r="I34" s="10" t="s">
         <v>120</v>
@@ -1851,17 +1884,17 @@
         <v>0</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="5" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G35" s="5"/>
+        <v>116</v>
+      </c>
+      <c r="G35" s="8"/>
       <c r="H35" s="10"/>
       <c r="I35" s="10" t="s">
         <v>120</v>
@@ -1872,17 +1905,17 @@
         <v>0</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="5" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G36" s="5"/>
+        <v>116</v>
+      </c>
+      <c r="G36" s="8"/>
       <c r="H36" s="10"/>
       <c r="I36" s="10" t="s">
         <v>120</v>
@@ -1893,17 +1926,17 @@
         <v>0</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="5" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G37" s="5"/>
+        <v>119</v>
+      </c>
+      <c r="G37" s="8"/>
       <c r="H37" s="10"/>
       <c r="I37" s="10" t="s">
         <v>120</v>
@@ -1914,15 +1947,15 @@
         <v>0</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="10"/>
@@ -1935,17 +1968,17 @@
         <v>0</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="5" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G39" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="G39" s="5"/>
       <c r="H39" s="10"/>
       <c r="I39" s="10" t="s">
         <v>120</v>
@@ -1956,17 +1989,17 @@
         <v>0</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="5" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G40" s="8"/>
+      <c r="G40" s="5"/>
       <c r="H40" s="10"/>
       <c r="I40" s="10" t="s">
         <v>120</v>
@@ -1977,15 +2010,17 @@
         <v>0</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="5" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="8"/>
+      <c r="F41" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G41" s="5"/>
       <c r="H41" s="10"/>
       <c r="I41" s="10" t="s">
         <v>120</v>
@@ -1993,18 +2028,18 @@
     </row>
     <row r="42" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="5" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5" t="s">
-        <v>115</v>
+        <v>2</v>
       </c>
       <c r="G42" s="8"/>
       <c r="H42" s="10"/>
@@ -2014,18 +2049,18 @@
     </row>
     <row r="43" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="5" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5" t="s">
-        <v>115</v>
+        <v>2</v>
       </c>
       <c r="G43" s="8"/>
       <c r="H43" s="10"/>
@@ -2035,19 +2070,17 @@
     </row>
     <row r="44" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="5" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="E44" s="5"/>
-      <c r="F44" s="5" t="s">
-        <v>118</v>
-      </c>
+      <c r="F44" s="5"/>
       <c r="G44" s="8"/>
       <c r="H44" s="10"/>
       <c r="I44" s="10" t="s">
@@ -2056,20 +2089,20 @@
     </row>
     <row r="45" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="5" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G45" s="8"/>
+      <c r="G45" s="5"/>
       <c r="H45" s="10"/>
       <c r="I45" s="10" t="s">
         <v>120</v>
@@ -2077,20 +2110,20 @@
     </row>
     <row r="46" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="5" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G46" s="8"/>
+      <c r="G46" s="5"/>
       <c r="H46" s="10"/>
       <c r="I46" s="10" t="s">
         <v>120</v>
@@ -2101,15 +2134,15 @@
         <v>3</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5" t="s">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="G47" s="8"/>
       <c r="H47" s="10"/>
@@ -2122,15 +2155,15 @@
         <v>3</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="5" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5" t="s">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="G48" s="8"/>
       <c r="H48" s="10"/>
@@ -2143,17 +2176,17 @@
         <v>3</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G49" s="5"/>
+        <v>118</v>
+      </c>
+      <c r="G49" s="8"/>
       <c r="H49" s="10"/>
       <c r="I49" s="10" t="s">
         <v>120</v>
@@ -2164,11 +2197,11 @@
         <v>3</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="5" t="s">
@@ -2185,11 +2218,11 @@
         <v>3</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5" t="s">
@@ -2206,17 +2239,17 @@
         <v>3</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G52" s="5"/>
+      <c r="G52" s="8"/>
       <c r="H52" s="10"/>
       <c r="I52" s="10" t="s">
         <v>120</v>
@@ -2227,17 +2260,17 @@
         <v>3</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G53" s="5"/>
+      <c r="G53" s="8"/>
       <c r="H53" s="10"/>
       <c r="I53" s="10" t="s">
         <v>120</v>
@@ -2248,11 +2281,11 @@
         <v>3</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5" t="s">
@@ -2269,17 +2302,17 @@
         <v>3</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G55" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="G55" s="8"/>
       <c r="H55" s="10"/>
       <c r="I55" s="10" t="s">
         <v>120</v>
@@ -2290,17 +2323,17 @@
         <v>3</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G56" s="5"/>
+      <c r="G56" s="8"/>
       <c r="H56" s="10"/>
       <c r="I56" s="10" t="s">
         <v>120</v>
@@ -2311,15 +2344,15 @@
         <v>3</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G57" s="5"/>
       <c r="H57" s="10"/>
@@ -2332,11 +2365,11 @@
         <v>3</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5" t="s">
@@ -2353,11 +2386,11 @@
         <v>3</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5" t="s">
@@ -2374,15 +2407,15 @@
         <v>3</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G60" s="5"/>
       <c r="H60" s="10"/>
@@ -2395,11 +2428,11 @@
         <v>3</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5" t="s">
@@ -2416,17 +2449,17 @@
         <v>3</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G62" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="G62" s="5"/>
       <c r="H62" s="10"/>
       <c r="I62" s="10" t="s">
         <v>120</v>
@@ -2437,17 +2470,17 @@
         <v>3</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G63" s="8"/>
+      <c r="G63" s="5"/>
       <c r="H63" s="10"/>
       <c r="I63" s="10" t="s">
         <v>120</v>
@@ -2458,17 +2491,17 @@
         <v>3</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G64" s="8"/>
+      <c r="G64" s="5"/>
       <c r="H64" s="10"/>
       <c r="I64" s="10" t="s">
         <v>120</v>
@@ -2479,17 +2512,17 @@
         <v>3</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C65" s="6"/>
       <c r="D65" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G65" s="8"/>
+      <c r="G65" s="5"/>
       <c r="H65" s="10"/>
       <c r="I65" s="10" t="s">
         <v>120</v>
@@ -2500,17 +2533,17 @@
         <v>3</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G66" s="8"/>
+      <c r="G66" s="5"/>
       <c r="H66" s="10"/>
       <c r="I66" s="10" t="s">
         <v>120</v>
@@ -2521,11 +2554,11 @@
         <v>3</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5" t="s">
@@ -2542,11 +2575,11 @@
         <v>3</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5" t="s">
@@ -2563,15 +2596,15 @@
         <v>3</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G69" s="8"/>
       <c r="H69" s="10"/>
@@ -2584,19 +2617,187 @@
         <v>3</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C70" s="6"/>
       <c r="D70" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G70" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="G70" s="8"/>
       <c r="H70" s="10"/>
       <c r="I70" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C71" s="6"/>
+      <c r="D71" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G71" s="8"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" s="6"/>
+      <c r="D72" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G72" s="8"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C73" s="6"/>
+      <c r="D73" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G73" s="8"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C74" s="6"/>
+      <c r="D74" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G74" s="8"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C75" s="6"/>
+      <c r="D75" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G75" s="5"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C76" s="6"/>
+      <c r="D76" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G76" s="5"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C77" s="6"/>
+      <c r="D77" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G77" s="5"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C78" s="6"/>
+      <c r="D78" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G78" s="5"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="10" t="s">
         <v>120</v>
       </c>
     </row>

--- a/changes.xlsx
+++ b/changes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00113294\Documents\WIP\tibs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F3CF9E-BA6F-4FF4-B6A5-E452D22637C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E6233D-F3E0-4283-80E3-D28E63114F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{28ABBFF5-56A0-4383-A735-B2BF5F1EF509}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="140">
   <si>
     <t>G227_PA.sav</t>
   </si>
@@ -72,9 +72,18 @@
     <t>recode</t>
   </si>
   <si>
+    <t>{9: -99}</t>
+  </si>
+  <si>
     <t>status</t>
   </si>
   <si>
+    <t>complete</t>
+  </si>
+  <si>
+    <t>{888: -88, 999: -99}</t>
+  </si>
+  <si>
     <t>old_field_values</t>
   </si>
   <si>
@@ -402,9 +411,6 @@
     <t>1="Light";2="Light/medium";3="Medium";4="Medium/dark";5="Dark";99="missing"</t>
   </si>
   <si>
-    <t>in progress</t>
-  </si>
-  <si>
     <t>G228_PIER</t>
   </si>
   <si>
@@ -436,6 +442,24 @@
   </si>
   <si>
     <t>Any nipple piercings - Right breast</t>
+  </si>
+  <si>
+    <t>G227_AREL</t>
+  </si>
+  <si>
+    <t>G227_ARER</t>
+  </si>
+  <si>
+    <t>{99: -99}</t>
+  </si>
+  <si>
+    <t>G227_TIBS_COM</t>
+  </si>
+  <si>
+    <t>G227_BR_COL</t>
+  </si>
+  <si>
+    <t>-99="Missing";1="Light";2="Light/medium";3="Medium";4="Medium/dark";5="Dark"</t>
   </si>
 </sst>
 </file>
@@ -517,7 +541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -531,9 +555,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1148,13 +1169,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" style="8" customWidth="1"/>
     <col min="4" max="4" width="61.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="65.7109375" style="9" customWidth="1"/>
+    <col min="5" max="6" width="65.7109375" style="8" customWidth="1"/>
     <col min="7" max="7" width="79.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" customWidth="1"/>
     <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -1176,707 +1197,723 @@
         <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" s="7"/>
+        <v>86</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>88</v>
+      </c>
       <c r="F2" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" s="5"/>
+        <v>87</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="F3" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10" t="s">
         <v>120</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10" t="s">
-        <v>120</v>
+      <c r="G5" s="7"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10" t="s">
-        <v>120</v>
+      <c r="G6" s="7"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10" t="s">
-        <v>120</v>
+      <c r="G7" s="7"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10" t="s">
-        <v>120</v>
+      <c r="G8" s="7"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10" t="s">
-        <v>120</v>
+      <c r="G9" s="7"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10" t="s">
-        <v>120</v>
+      <c r="G10" s="7"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10" t="s">
-        <v>120</v>
+      <c r="G11" s="7"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G12" s="5"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10" t="s">
-        <v>120</v>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G13" s="5"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10" t="s">
-        <v>120</v>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G14" s="5"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10" t="s">
-        <v>120</v>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5" t="s">
         <v>2</v>
       </c>
       <c r="G15" s="5"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10" t="s">
-        <v>120</v>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G16" s="5"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10" t="s">
-        <v>120</v>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5" t="s">
         <v>2</v>
       </c>
       <c r="G17" s="5"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10" t="s">
-        <v>120</v>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G18" s="5"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10" t="s">
-        <v>120</v>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G19" s="5"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10" t="s">
-        <v>120</v>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G20" s="5"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10" t="s">
-        <v>120</v>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G21" s="5"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10" t="s">
-        <v>120</v>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10" t="s">
-        <v>120</v>
+      <c r="G22" s="7"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10" t="s">
-        <v>120</v>
+      <c r="G23" s="7"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10" t="s">
-        <v>120</v>
+      <c r="G24" s="7"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G25" s="8"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10" t="s">
-        <v>120</v>
+      <c r="G25" s="7"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="5" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10" t="s">
-        <v>120</v>
+      <c r="G26" s="7"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G27" s="8"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10" t="s">
-        <v>120</v>
+      <c r="G27" s="7"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G28" s="8"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10" t="s">
-        <v>120</v>
+      <c r="G28" s="7"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G29" s="8"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10" t="s">
-        <v>120</v>
+      <c r="G29" s="7"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G30" s="8"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10" t="s">
-        <v>120</v>
+      <c r="G30" s="7"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10" t="s">
-        <v>120</v>
+      <c r="G31" s="7"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G32" s="5"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10" t="s">
-        <v>120</v>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G33" s="5"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10" t="s">
-        <v>120</v>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G34" s="5"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10" t="s">
-        <v>120</v>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1884,20 +1921,26 @@
         <v>0</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>134</v>
+      </c>
       <c r="D35" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="G35" s="8"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1905,20 +1948,26 @@
         <v>0</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>135</v>
+      </c>
       <c r="D36" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="G36" s="8"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1926,20 +1975,26 @@
         <v>0</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>138</v>
+      </c>
       <c r="D37" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="G37" s="8"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1947,20 +2002,20 @@
         <v>0</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5" t="s">
         <v>2</v>
       </c>
       <c r="G38" s="5"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10" t="s">
-        <v>120</v>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1968,20 +2023,20 @@
         <v>0</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G39" s="5"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10" t="s">
-        <v>120</v>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1989,20 +2044,20 @@
         <v>0</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5" t="s">
         <v>2</v>
       </c>
       <c r="G40" s="5"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10" t="s">
-        <v>120</v>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2010,20 +2065,20 @@
         <v>0</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G41" s="5"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10" t="s">
-        <v>120</v>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2031,20 +2086,20 @@
         <v>0</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G42" s="8"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10" t="s">
-        <v>120</v>
+      <c r="G42" s="7"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2052,20 +2107,20 @@
         <v>0</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G43" s="8"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10" t="s">
-        <v>120</v>
+      <c r="G43" s="7"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2073,18 +2128,20 @@
         <v>0</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C44" s="6"/>
+        <v>84</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>137</v>
+      </c>
       <c r="D44" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10" t="s">
-        <v>120</v>
+      <c r="G44" s="7"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2092,20 +2149,20 @@
         <v>0</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G45" s="5"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10" t="s">
-        <v>120</v>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2113,20 +2170,20 @@
         <v>0</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G46" s="5"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10" t="s">
-        <v>120</v>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2134,20 +2191,26 @@
         <v>3</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E47" s="5"/>
+        <v>87</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>88</v>
+      </c>
       <c r="F47" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="G47" s="8"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2155,20 +2218,26 @@
         <v>3</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E48" s="5"/>
+        <v>86</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="F48" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="G48" s="8"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2176,20 +2245,24 @@
         <v>3</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G49" s="8"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2197,20 +2270,20 @@
         <v>3</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G50" s="8"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10" t="s">
-        <v>120</v>
+      <c r="G50" s="7"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2218,20 +2291,20 @@
         <v>3</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G51" s="8"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10" t="s">
-        <v>120</v>
+      <c r="G51" s="7"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2239,20 +2312,20 @@
         <v>3</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G52" s="8"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10" t="s">
-        <v>120</v>
+      <c r="G52" s="7"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2260,20 +2333,20 @@
         <v>3</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G53" s="8"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10" t="s">
-        <v>120</v>
+      <c r="G53" s="7"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2281,20 +2354,20 @@
         <v>3</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G54" s="5"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10" t="s">
-        <v>120</v>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2302,20 +2375,20 @@
         <v>3</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G55" s="8"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10" t="s">
-        <v>120</v>
+      <c r="G55" s="7"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2323,20 +2396,20 @@
         <v>3</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G56" s="8"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10" t="s">
-        <v>120</v>
+      <c r="G56" s="7"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2344,20 +2417,20 @@
         <v>3</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G57" s="5"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10" t="s">
-        <v>120</v>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2365,20 +2438,20 @@
         <v>3</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G58" s="5"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10" t="s">
-        <v>120</v>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2386,20 +2459,20 @@
         <v>3</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G59" s="5"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10" t="s">
-        <v>120</v>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2407,20 +2480,20 @@
         <v>3</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5" t="s">
         <v>2</v>
       </c>
       <c r="G60" s="5"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10" t="s">
-        <v>120</v>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2428,20 +2501,20 @@
         <v>3</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G61" s="5"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10" t="s">
-        <v>120</v>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2449,20 +2522,20 @@
         <v>3</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="5" t="s">
         <v>2</v>
       </c>
       <c r="G62" s="5"/>
-      <c r="H62" s="10"/>
-      <c r="I62" s="10" t="s">
-        <v>120</v>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2470,20 +2543,20 @@
         <v>3</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G63" s="5"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="10" t="s">
-        <v>120</v>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2491,20 +2564,20 @@
         <v>3</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G64" s="5"/>
-      <c r="H64" s="10"/>
-      <c r="I64" s="10" t="s">
-        <v>120</v>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2512,20 +2585,20 @@
         <v>3</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C65" s="6"/>
       <c r="D65" s="5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G65" s="5"/>
-      <c r="H65" s="10"/>
-      <c r="I65" s="10" t="s">
-        <v>120</v>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2533,20 +2606,20 @@
         <v>3</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G66" s="5"/>
-      <c r="H66" s="10"/>
-      <c r="I66" s="10" t="s">
-        <v>120</v>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2554,20 +2627,20 @@
         <v>3</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G67" s="8"/>
-      <c r="H67" s="10"/>
-      <c r="I67" s="10" t="s">
-        <v>120</v>
+      <c r="G67" s="7"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2575,20 +2648,20 @@
         <v>3</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G68" s="8"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="10" t="s">
-        <v>120</v>
+      <c r="G68" s="7"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2596,20 +2669,20 @@
         <v>3</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G69" s="8"/>
-      <c r="H69" s="10"/>
-      <c r="I69" s="10" t="s">
-        <v>120</v>
+      <c r="G69" s="7"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2617,20 +2690,20 @@
         <v>3</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C70" s="6"/>
       <c r="D70" s="5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G70" s="8"/>
-      <c r="H70" s="10"/>
-      <c r="I70" s="10" t="s">
-        <v>120</v>
+      <c r="G70" s="7"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2638,20 +2711,20 @@
         <v>3</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="5" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G71" s="8"/>
-      <c r="H71" s="10"/>
-      <c r="I71" s="10" t="s">
-        <v>120</v>
+      <c r="G71" s="7"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2659,20 +2732,20 @@
         <v>3</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G72" s="8"/>
-      <c r="H72" s="10"/>
-      <c r="I72" s="10" t="s">
-        <v>120</v>
+      <c r="G72" s="7"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2680,20 +2753,20 @@
         <v>3</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G73" s="8"/>
-      <c r="H73" s="10"/>
-      <c r="I73" s="10" t="s">
-        <v>120</v>
+      <c r="G73" s="7"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2701,20 +2774,20 @@
         <v>3</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C74" s="6"/>
       <c r="D74" s="5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G74" s="8"/>
-      <c r="H74" s="10"/>
-      <c r="I74" s="10" t="s">
-        <v>120</v>
+      <c r="G74" s="7"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2722,20 +2795,20 @@
         <v>3</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5" t="s">
         <v>2</v>
       </c>
       <c r="G75" s="5"/>
-      <c r="H75" s="10"/>
-      <c r="I75" s="10" t="s">
-        <v>120</v>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2743,20 +2816,20 @@
         <v>3</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E76" s="5"/>
       <c r="F76" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G76" s="5"/>
-      <c r="H76" s="10"/>
-      <c r="I76" s="10" t="s">
-        <v>120</v>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2764,20 +2837,20 @@
         <v>3</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C77" s="6"/>
       <c r="D77" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G77" s="5"/>
-      <c r="H77" s="10"/>
-      <c r="I77" s="10" t="s">
-        <v>120</v>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2785,20 +2858,20 @@
         <v>3</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E78" s="5"/>
       <c r="F78" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G78" s="5"/>
-      <c r="H78" s="10"/>
-      <c r="I78" s="10" t="s">
-        <v>120</v>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
